--- a/bin/excel/SpanishEnglish-VERBS1.xlsx
+++ b/bin/excel/SpanishEnglish-VERBS1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DETPC\Documents\JavaVSCodeProjects\LecturaImagenes\ReadingImages\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6BC234-271B-4289-B990-D93D722CF013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2443EB9-8BBB-4CC9-A72C-C4E61ED5772C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3708A550-79DB-4032-8CA5-EDF3E4A7C665}"/>
+    <workbookView xWindow="10065" yWindow="3735" windowWidth="10425" windowHeight="7065" xr2:uid="{3708A550-79DB-4032-8CA5-EDF3E4A7C665}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,14 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="99">
   <si>
     <t>español</t>
   </si>
   <si>
-    <t>inglés</t>
-  </si>
-  <si>
     <t>parecer</t>
   </si>
   <si>
@@ -235,12 +232,6 @@
     <t>mejorar</t>
   </si>
   <si>
-    <t>empruf, inhens</t>
-  </si>
-  <si>
-    <t>involf</t>
-  </si>
-  <si>
     <t>taste</t>
   </si>
   <si>
@@ -251,6 +242,96 @@
   </si>
   <si>
     <t>improve/enhance</t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>est'eand</t>
+  </si>
+  <si>
+    <t>kerri</t>
+  </si>
+  <si>
+    <t>ap'ior</t>
+  </si>
+  <si>
+    <t>eksp'akt</t>
+  </si>
+  <si>
+    <t>riech</t>
+  </si>
+  <si>
+    <t>inv'olf</t>
+  </si>
+  <si>
+    <t>krieit</t>
+  </si>
+  <si>
+    <t>sel</t>
+  </si>
+  <si>
+    <t>kleim</t>
+  </si>
+  <si>
+    <t>sop'ort</t>
+  </si>
+  <si>
+    <t>ech'ivf</t>
+  </si>
+  <si>
+    <t>sik</t>
+  </si>
+  <si>
+    <t>diol</t>
+  </si>
+  <si>
+    <t>piek</t>
+  </si>
+  <si>
+    <t>pleis</t>
+  </si>
+  <si>
+    <t>argiu</t>
+  </si>
+  <si>
+    <t>teist</t>
+  </si>
+  <si>
+    <t>u'er</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>rel'eit</t>
+  </si>
+  <si>
+    <t>af'ekt</t>
+  </si>
+  <si>
+    <t>av'oid</t>
+  </si>
+  <si>
+    <t>ekspr'ess</t>
+  </si>
+  <si>
+    <t>ttrit</t>
+  </si>
+  <si>
+    <t>frou</t>
+  </si>
+  <si>
+    <t>inc'ureish</t>
+  </si>
+  <si>
+    <t>fors</t>
+  </si>
+  <si>
+    <t>fiel</t>
+  </si>
+  <si>
+    <t>iempr'uf/inj'eans</t>
   </si>
 </sst>
 </file>
@@ -610,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CCA250-0122-402E-A403-825DD2083217}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -639,13 +720,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -653,13 +734,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -667,13 +748,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -681,13 +762,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -695,13 +776,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -709,13 +790,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
         <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -723,13 +804,13 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
         <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -737,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
         <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -751,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
         <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -765,13 +846,13 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -779,13 +860,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -793,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -807,13 +888,13 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -821,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
         <v>30</v>
-      </c>
-      <c r="D15" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -835,13 +916,13 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
         <v>32</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -849,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
         <v>34</v>
-      </c>
-      <c r="D17" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -863,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
         <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -877,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -891,13 +972,13 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
         <v>38</v>
-      </c>
-      <c r="D20" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -905,13 +986,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
         <v>40</v>
-      </c>
-      <c r="D21" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -919,13 +1000,13 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
         <v>42</v>
-      </c>
-      <c r="D22" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -933,13 +1014,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
         <v>44</v>
-      </c>
-      <c r="D23" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -947,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
         <v>46</v>
-      </c>
-      <c r="D24" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -961,13 +1042,13 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" t="s">
         <v>48</v>
-      </c>
-      <c r="D25" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -975,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" t="s">
         <v>50</v>
-      </c>
-      <c r="D26" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -989,13 +1070,13 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" t="s">
         <v>52</v>
-      </c>
-      <c r="D27" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1003,13 +1084,13 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1017,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" t="s">
         <v>55</v>
-      </c>
-      <c r="D29" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1031,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" t="s">
         <v>57</v>
-      </c>
-      <c r="D30" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1045,13 +1126,13 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" t="s">
         <v>59</v>
-      </c>
-      <c r="D31" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1059,13 +1140,13 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="C32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" t="s">
         <v>61</v>
-      </c>
-      <c r="D32" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1073,13 +1154,13 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="C33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" t="s">
         <v>63</v>
-      </c>
-      <c r="D33" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1087,13 +1168,13 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D34" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
